--- a/previous_source.xlsx
+++ b/previous_source.xlsx
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1244,174 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:48:15 GBPCHFLongTrigger1.09089 1.09100 1.09095 1.09121 -2.743 0.650 3 -25 6 -43 6 -43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:48:15 EUR.CHFLongTrigger0.942920.942980.942950.94309 -2.290 0.470 4 -13 4 -26 4 -26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:48:14. AUD.CHFLongTrigger0.5289706.529040.529010.52905 -0.975 0.450 oO -21 fc -33 i -33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:27:46 EURJPYLongTrigger171.949 171.956 171.953 171.983 -1.624 0.050 24 -2 31 -2 50 -2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:27:03USD.MXNShortTrigger18.6868018.6878718.6873418.67588 3.821 0.380 m4 -175 504 -425 743 -425</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:32 NZDUSDLongTrigger0.593480.593500.593490.59366 -2.691 -0.140 oO 7 1 -12 1 -23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:25 EUR.GBPLongTrigger0.86421 0.864240.864230.86436 -2.172 -0.600 6 6 6 -6 18 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:24 EUR.CADLongTrigger1.59926 1.59939 1.599331.59957 -1.731 -0.320 8 -15 45 -15 49 -15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:23 USD.CADShortTrigger1.37820 1.37827 1.378241.37800 2.069 0.240 2 nN 2 -42 2 -54</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:15 USD.CHFShortTrigger0.81270 0.81276 0.812730.81252 2.955 0.430 Oo Sil 3 -16 42 -16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:10 AUD.USDLongTrigger0.65110 0.65112 0.65111 0.65127 -2.191 -O.110 oO N 1 -15 1 -34</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:25:56 EUR.USDLongTrigger1.16068 1.16069 1.16069 1.16092 -2.010 -0.310 oO -32 fc -40 i -A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:48:15 GBPCHFLongTrigger1.09089 1.09100 1.09095 1.09121 -2.743 0.650 3 -25 6 -43 6 -43</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:48:15 EUR.CHFLongTrigger0.942920.942980.942950.94309 -2.290 0.470 4 -13 4 -26 4 -26</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:48:14. AUD.CHFLongTrigger0.5289706.529040.529010.52905 -0.975 0.450 oO -21 fc -33 i -33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:27:46 EURJPYLongTrigger171.949 171.956 171.953 171.983 -1.624 0.050 24 -2 31 -2 50 -2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:27:03USD.MXNShortTrigger18.6868018.6878718.6873418.67588 3.821 0.380 m4 -175 504 -425 743 -425</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:32 NZDUSDLongTrigger0.593480.593500.593490.59366 -2.691 -0.140 oO 7 1 -12 1 -23</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:25 EUR.GBPLongTrigger0.86421 0.864240.864230.86436 -2.172 -0.600 6 6 6 -6 18 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:24 EUR.CADLongTrigger1.59926 1.59939 1.599331.59957 -1.731 -0.320 8 -15 45 -15 49 -15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:23 USD.CADShortTrigger1.37820 1.37827 1.378241.37800 2.069 0.240 2 nN 2 -42 2 -54</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:15 USD.CHFShortTrigger0.81270 0.81276 0.812730.81252 2.955 0.430 Oo Sil 3 -16 42 -16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:26:10 AUD.USDLongTrigger0.65110 0.65112 0.65111 0.65127 -2.191 -O.110 oO N 1 -15 1 -34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-11 19:25:56 EUR.USDLongTrigger1.16068 1.16069 1.16069 1.16092 -2.010 -0.310 oO -32 fc -40 i -A7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/previous_source.xlsx
+++ b/previous_source.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,138 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-13 08:18:13 NZDJPY ShortTrigger 88.067 88.075 88.071 88.011 4.095 0.050 B -4 1B 4 13 -4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-13 08:16:36 AUDJPY ShortTrigger 96.426 96.430 96.428 96.378 2.722 -0.150 4 -16 4 -16 4 -16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-13 08:13:21 AUD.CHF LongTrigger 0.52635 0.52645 0.52640 0.52663 -2.016 0.070 36 6 40 6 40 -6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LongTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-13 08:13:11 GBP.CHF LongTrigger 1.09140 1.09148 1.09144 1.09183 -1.713 0.370 33 -18 35 -18 35 -18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LongTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-13 08:12:47 EUR.AUD ShortTrigger 1.78849 1.78860 1.78855 1.78774 3.050 -0.100 74 -11 83 1 83 -1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-13 07:55:37 CAD.JPY LongTrigger 106.961 106.966 106.964 107.019 -2.735 -0.390 36 -16 36 -66 36 -66</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LongTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-13 07:53:01 NZD.USD ShortTrigger 0.59821 0.59823 0.59822 0.59798 2.229 0.300 28 2 34 -2 45 -3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-13 07:53:00 USDJPY. LongTrigger 147.235 147.241 147.238 147.315 -2.500 -0.320 30 -39 30 -B4 30 -109</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LongTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-13 07:50:15 AUD.NZD ShortTrigger 1.09499 1.09510 1.09505 1.09486 2.396 -0.310 n 7 an -7 nN -17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-13 07:32:34 EUR.CAD ShortTrigger 1.61154 1.61163 1.61159 1.61106 2.206 0.320 57 -10 101 -10 mM -10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-13 07:25:00 AUD.USD ShortTrigger 0.65464 0.65467 0.65466 0.65438 2.121 0.310 14 -1 24 4 28 -37</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ShortTrigger</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
